--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.77842026924074</v>
+        <v>0.01542466666666666</v>
       </c>
       <c r="H2">
-        <v>1.77842026924074</v>
+        <v>0.046274</v>
       </c>
       <c r="I2">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="J2">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N2">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q2">
-        <v>158.5050725686582</v>
+        <v>1.502669036884666</v>
       </c>
       <c r="R2">
-        <v>158.5050725686582</v>
+        <v>13.524021331962</v>
       </c>
       <c r="S2">
-        <v>0.265711496229148</v>
+        <v>0.00208124352008499</v>
       </c>
       <c r="T2">
-        <v>0.265711496229148</v>
+        <v>0.00208124352008499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.77842026924074</v>
+        <v>0.01542466666666666</v>
       </c>
       <c r="H3">
-        <v>1.77842026924074</v>
+        <v>0.046274</v>
       </c>
       <c r="I3">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="J3">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N3">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q3">
-        <v>61.69842404781978</v>
+        <v>0.5385188885373333</v>
       </c>
       <c r="R3">
-        <v>61.69842404781978</v>
+        <v>4.846669996836</v>
       </c>
       <c r="S3">
-        <v>0.1034287439704834</v>
+        <v>0.0007458654698411273</v>
       </c>
       <c r="T3">
-        <v>0.1034287439704834</v>
+        <v>0.0007458654698411272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.77842026924074</v>
+        <v>0.01542466666666666</v>
       </c>
       <c r="H4">
-        <v>1.77842026924074</v>
+        <v>0.046274</v>
       </c>
       <c r="I4">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="J4">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N4">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q4">
-        <v>84.46566693391418</v>
+        <v>0.7778226429606665</v>
       </c>
       <c r="R4">
-        <v>84.46566693391418</v>
+        <v>7.000403786645999</v>
       </c>
       <c r="S4">
-        <v>0.1415948295994222</v>
+        <v>0.001077308639295213</v>
       </c>
       <c r="T4">
-        <v>0.1415948295994222</v>
+        <v>0.001077308639295213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.77842026924074</v>
+        <v>0.01542466666666666</v>
       </c>
       <c r="H5">
-        <v>1.77842026924074</v>
+        <v>0.046274</v>
       </c>
       <c r="I5">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="J5">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N5">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q5">
-        <v>113.2839588611948</v>
+        <v>0.9853896058539999</v>
       </c>
       <c r="R5">
-        <v>113.2839588611948</v>
+        <v>8.868506452685999</v>
       </c>
       <c r="S5">
-        <v>0.1899046492327922</v>
+        <v>0.001364795361854619</v>
       </c>
       <c r="T5">
-        <v>0.1899046492327922</v>
+        <v>0.001364795361854619</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.77842026924074</v>
+        <v>0.01542466666666666</v>
       </c>
       <c r="H6">
-        <v>1.77842026924074</v>
+        <v>0.046274</v>
       </c>
       <c r="I6">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="J6">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N6">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q6">
-        <v>33.27519846692648</v>
+        <v>0.3024675639026667</v>
       </c>
       <c r="R6">
-        <v>33.27519846692648</v>
+        <v>2.722208075124</v>
       </c>
       <c r="S6">
-        <v>0.05578119758999542</v>
+        <v>0.000418927017165014</v>
       </c>
       <c r="T6">
-        <v>0.05578119758999542</v>
+        <v>0.0004189270171650139</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.77842026924074</v>
+        <v>0.01542466666666666</v>
       </c>
       <c r="H7">
-        <v>1.77842026924074</v>
+        <v>0.046274</v>
       </c>
       <c r="I7">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="J7">
-        <v>0.8032860999446892</v>
+        <v>0.006030344593912183</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N7">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q7">
-        <v>27.95652197571956</v>
+        <v>0.2470735549231111</v>
       </c>
       <c r="R7">
-        <v>27.95652197571956</v>
+        <v>2.223661994308</v>
       </c>
       <c r="S7">
-        <v>0.04686518332284806</v>
+        <v>0.0003422045856712196</v>
       </c>
       <c r="T7">
-        <v>0.04686518332284806</v>
+        <v>0.0003422045856712196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.435511067755125</v>
+        <v>2.101145666666667</v>
       </c>
       <c r="H8">
-        <v>0.435511067755125</v>
+        <v>6.303437000000001</v>
       </c>
       <c r="I8">
-        <v>0.1967139000553107</v>
+        <v>0.8214525918661892</v>
       </c>
       <c r="J8">
-        <v>0.1967139000553107</v>
+        <v>0.8214525918661892</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N8">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q8">
-        <v>38.81574821931778</v>
+        <v>204.6933397988757</v>
       </c>
       <c r="R8">
-        <v>38.81574821931778</v>
+        <v>1842.240058189881</v>
       </c>
       <c r="S8">
-        <v>0.06506915122316534</v>
+        <v>0.2835066648769066</v>
       </c>
       <c r="T8">
-        <v>0.06506915122316534</v>
+        <v>0.2835066648769065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.435511067755125</v>
+        <v>2.101145666666667</v>
       </c>
       <c r="H9">
-        <v>0.435511067755125</v>
+        <v>6.303437000000001</v>
       </c>
       <c r="I9">
-        <v>0.1967139000553107</v>
+        <v>0.8214525918661892</v>
       </c>
       <c r="J9">
-        <v>0.1967139000553107</v>
+        <v>0.8214525918661892</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N9">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q9">
-        <v>15.10910947238934</v>
+        <v>73.35695827473535</v>
       </c>
       <c r="R9">
-        <v>15.10910947238934</v>
+        <v>660.2126244726181</v>
       </c>
       <c r="S9">
-        <v>0.02532830034735683</v>
+        <v>0.1016016769593929</v>
       </c>
       <c r="T9">
-        <v>0.02532830034735683</v>
+        <v>0.1016016769593929</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.435511067755125</v>
+        <v>2.101145666666667</v>
       </c>
       <c r="H10">
-        <v>0.435511067755125</v>
+        <v>6.303437000000001</v>
       </c>
       <c r="I10">
-        <v>0.1967139000553107</v>
+        <v>0.8214525918661892</v>
       </c>
       <c r="J10">
-        <v>0.1967139000553107</v>
+        <v>0.8214525918661892</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N10">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q10">
-        <v>20.68449928921617</v>
+        <v>105.9548780541137</v>
       </c>
       <c r="R10">
-        <v>20.68449928921617</v>
+        <v>953.593902487023</v>
       </c>
       <c r="S10">
-        <v>0.03467465845616819</v>
+        <v>0.1467508133585405</v>
       </c>
       <c r="T10">
-        <v>0.03467465845616819</v>
+        <v>0.1467508133585405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.435511067755125</v>
+        <v>2.101145666666667</v>
       </c>
       <c r="H11">
-        <v>0.435511067755125</v>
+        <v>6.303437000000001</v>
       </c>
       <c r="I11">
-        <v>0.1967139000553107</v>
+        <v>0.8214525918661892</v>
       </c>
       <c r="J11">
-        <v>0.1967139000553107</v>
+        <v>0.8214525918661892</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N11">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q11">
-        <v>27.74170916542115</v>
+        <v>134.229617084227</v>
       </c>
       <c r="R11">
-        <v>27.74170916542115</v>
+        <v>1208.066553758043</v>
       </c>
       <c r="S11">
-        <v>0.04650507981127838</v>
+        <v>0.1859122094770885</v>
       </c>
       <c r="T11">
-        <v>0.04650507981127838</v>
+        <v>0.1859122094770885</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.435511067755125</v>
+        <v>2.101145666666667</v>
       </c>
       <c r="H12">
-        <v>0.435511067755125</v>
+        <v>6.303437000000001</v>
       </c>
       <c r="I12">
-        <v>0.1967139000553107</v>
+        <v>0.8214525918661892</v>
       </c>
       <c r="J12">
-        <v>0.1967139000553107</v>
+        <v>0.8214525918661892</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N12">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q12">
-        <v>8.148646000465225</v>
+        <v>41.20208396948468</v>
       </c>
       <c r="R12">
-        <v>8.148646000465225</v>
+        <v>370.8187557253621</v>
       </c>
       <c r="S12">
-        <v>0.01366006075349672</v>
+        <v>0.05706617237104173</v>
       </c>
       <c r="T12">
-        <v>0.01366006075349672</v>
+        <v>0.05706617237104172</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.101145666666667</v>
+      </c>
+      <c r="H13">
+        <v>6.303437000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.8214525918661892</v>
+      </c>
+      <c r="J13">
+        <v>0.8214525918661892</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N13">
+        <v>48.054242</v>
+      </c>
+      <c r="O13">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P13">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q13">
+        <v>33.65632078108379</v>
+      </c>
+      <c r="R13">
+        <v>302.906887029754</v>
+      </c>
+      <c r="S13">
+        <v>0.046615054823219</v>
+      </c>
+      <c r="T13">
+        <v>0.046615054823219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4412713333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.323814</v>
+      </c>
+      <c r="I14">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="J14">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>97.419871</v>
+      </c>
+      <c r="N14">
+        <v>292.259613</v>
+      </c>
+      <c r="O14">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="P14">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="Q14">
+        <v>42.98859636933133</v>
+      </c>
+      <c r="R14">
+        <v>386.897367323982</v>
+      </c>
+      <c r="S14">
+        <v>0.05954054780865696</v>
+      </c>
+      <c r="T14">
+        <v>0.05954054780865694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.435511067755125</v>
-      </c>
-      <c r="H13">
-        <v>0.435511067755125</v>
-      </c>
-      <c r="I13">
-        <v>0.1967139000553107</v>
-      </c>
-      <c r="J13">
-        <v>0.1967139000553107</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="N13">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="O13">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="P13">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="Q13">
-        <v>6.846174071983148</v>
-      </c>
-      <c r="R13">
-        <v>6.846174071983148</v>
-      </c>
-      <c r="S13">
-        <v>0.01147664946384523</v>
-      </c>
-      <c r="T13">
-        <v>0.01147664946384523</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4412713333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.323814</v>
+      </c>
+      <c r="I15">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="J15">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>34.912838</v>
+      </c>
+      <c r="N15">
+        <v>104.738514</v>
+      </c>
+      <c r="O15">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="P15">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="Q15">
+        <v>15.40603457471067</v>
+      </c>
+      <c r="R15">
+        <v>138.654311172396</v>
+      </c>
+      <c r="S15">
+        <v>0.02133783876674293</v>
+      </c>
+      <c r="T15">
+        <v>0.02133783876674292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4412713333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.323814</v>
+      </c>
+      <c r="I16">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="J16">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>50.427193</v>
+      </c>
+      <c r="N16">
+        <v>151.281579</v>
+      </c>
+      <c r="O16">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="P16">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="Q16">
+        <v>22.25207469136733</v>
+      </c>
+      <c r="R16">
+        <v>200.268672222306</v>
+      </c>
+      <c r="S16">
+        <v>0.03081981801918903</v>
+      </c>
+      <c r="T16">
+        <v>0.03081981801918903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4412713333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.323814</v>
+      </c>
+      <c r="I17">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="J17">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>63.884013</v>
+      </c>
+      <c r="N17">
+        <v>191.652039</v>
+      </c>
+      <c r="O17">
+        <v>0.2263212890408322</v>
+      </c>
+      <c r="P17">
+        <v>0.2263212890408321</v>
+      </c>
+      <c r="Q17">
+        <v>28.190183595194</v>
+      </c>
+      <c r="R17">
+        <v>253.711652356746</v>
+      </c>
+      <c r="S17">
+        <v>0.03904428420188898</v>
+      </c>
+      <c r="T17">
+        <v>0.03904428420188897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4412713333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.323814</v>
+      </c>
+      <c r="I18">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="J18">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>19.609342</v>
+      </c>
+      <c r="N18">
+        <v>58.82802600000001</v>
+      </c>
+      <c r="O18">
+        <v>0.06946983056124746</v>
+      </c>
+      <c r="P18">
+        <v>0.06946983056124745</v>
+      </c>
+      <c r="Q18">
+        <v>8.653040490129335</v>
+      </c>
+      <c r="R18">
+        <v>77.87736441116401</v>
+      </c>
+      <c r="S18">
+        <v>0.01198473117304071</v>
+      </c>
+      <c r="T18">
+        <v>0.01198473117304071</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4412713333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.323814</v>
+      </c>
+      <c r="I19">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="J19">
+        <v>0.1725170635398985</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N19">
+        <v>48.054242</v>
+      </c>
+      <c r="O19">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P19">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q19">
+        <v>7.068319813220889</v>
+      </c>
+      <c r="R19">
+        <v>63.614878318988</v>
+      </c>
+      <c r="S19">
+        <v>0.009789843570379911</v>
+      </c>
+      <c r="T19">
+        <v>0.009789843570379909</v>
       </c>
     </row>
   </sheetData>
